--- a/src/test/resources/LoginData.xlsx
+++ b/src/test/resources/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,31 +16,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>john@mail.com</t>
-  </si>
-  <si>
-    <t>changeme</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>eve.holt@reqres.in</t>
+  </si>
+  <si>
+    <t>cityslicka</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>morpheus</t>
+  </si>
+  <si>
+    <t>leader</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF445797"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,8 +81,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,45 +382,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
